--- a/other files/Permit Detail Format_2014.xlsx
+++ b/other files/Permit Detail Format_2014.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\django project\nafd_v2_0.5\other files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\nafd\other files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -254,12 +254,237 @@
         </r>
       </text>
     </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FrancisMA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number data types
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FrancisMA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number data types
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FrancisMA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number data types
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FrancisMA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number data types
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FrancisMA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number data types
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FrancisMA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number data types
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FrancisMA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number data types
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FrancisMA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number data types
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>FrancisMA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Number data types
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>sitename</t>
   </si>
@@ -340,6 +565,21 @@
   </si>
   <si>
     <t>NOKIA FLEXI MR1</t>
+  </si>
+  <si>
+    <t>usages</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Protection</t>
+  </si>
+  <si>
+    <t>Quezon</t>
+  </si>
+  <si>
+    <t>4di2</t>
   </si>
 </sst>
 </file>
@@ -718,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD35"/>
+      <selection activeCell="A4" sqref="A4:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,9 +983,10 @@
     <col min="15" max="15" width="4.85546875" customWidth="1"/>
     <col min="16" max="16" width="11.140625" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -800,8 +1041,11 @@
       <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -856,171 +1100,68 @@
       <c r="R2" t="s">
         <v>25</v>
       </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
